--- a/results/evaluation_chd_49_noisy_0.0.xlsx
+++ b/results/evaluation_chd_49_noisy_0.0.xlsx
@@ -507,10 +507,10 @@
         <v>24</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.6916099999999999</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.01116</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -533,10 +533,10 @@
         <v>25</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.15317</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.00928</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -559,10 +559,10 @@
         <v>26</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.65266</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.01867</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -588,10 +588,10 @@
         <v>24</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.69524</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.02378</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -617,10 +617,10 @@
         <v>25</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.14778</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.01828</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -646,10 +646,10 @@
         <v>26</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.61757</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.03911</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -672,10 +672,10 @@
         <v>24</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.6916099999999999</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.009950000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -698,10 +698,10 @@
         <v>25</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.15857</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.00389</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -724,10 +724,10 @@
         <v>26</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.6522</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.01779</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -753,10 +753,10 @@
         <v>24</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.68863</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.02557</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -782,10 +782,10 @@
         <v>25</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.13341</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.03988</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -811,10 +811,10 @@
         <v>26</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.60093</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.04503</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -837,10 +837,10 @@
         <v>24</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.69071</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.01326</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -863,10 +863,10 @@
         <v>25</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.17119</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.01292</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -889,10 +889,10 @@
         <v>26</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.65604</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.01831</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -918,10 +918,10 @@
         <v>24</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.69042</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.01596</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -947,10 +947,10 @@
         <v>25</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.16938</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.00391</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -976,10 +976,10 @@
         <v>26</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.64991</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.02123</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1002,10 +1002,10 @@
         <v>24</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.69101</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.01296</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1028,10 +1028,10 @@
         <v>25</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.16939</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.01112</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1054,10 +1054,10 @@
         <v>26</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.6562</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.01799</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1083,10 +1083,10 @@
         <v>24</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.68891</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.01445</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1112,10 +1112,10 @@
         <v>25</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.16577</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1141,10 +1141,10 @@
         <v>26</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.6483100000000001</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.01939</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1167,10 +1167,10 @@
         <v>24</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>0.6751</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>0.01623</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1193,10 +1193,10 @@
         <v>25</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>0.12794</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>0.00564</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1219,10 +1219,10 @@
         <v>26</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>0.64085</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>0.01778</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1248,10 +1248,10 @@
         <v>24</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>0.6814</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>0.01174</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1277,10 +1277,10 @@
         <v>25</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>0.12974</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>0.00384</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1306,10 +1306,10 @@
         <v>26</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>0.60972</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>0.01558</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1332,10 +1332,10 @@
         <v>24</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>0.6718</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>0.01833</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1358,10 +1358,10 @@
         <v>25</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>0.12434</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>0.00923</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1384,10 +1384,10 @@
         <v>26</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>0.63662</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>0.02007</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1413,10 +1413,10 @@
         <v>24</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>0.66488</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>0.00961</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1442,10 +1442,10 @@
         <v>25</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>0.10632</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>0.0056</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1471,10 +1471,10 @@
         <v>26</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>0.57685</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>0.01892</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1497,10 +1497,10 @@
         <v>24</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>0.67931</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>0.01924</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1523,10 +1523,10 @@
         <v>25</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>0.14235</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>0.00206</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1549,10 +1549,10 @@
         <v>26</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>0.64442</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>0.02136</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1578,10 +1578,10 @@
         <v>24</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>0.6778</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>0.01173</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1607,10 +1607,10 @@
         <v>25</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>0.14594</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>0.00514</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1636,10 +1636,10 @@
         <v>26</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>0.6252</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>0.01559</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1662,10 +1662,10 @@
         <v>24</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>0.67991</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>0.01744</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1688,10 +1688,10 @@
         <v>25</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>0.14235</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>0.00206</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1714,10 +1714,10 @@
         <v>26</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>0.6450399999999999</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>0.01927</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1743,10 +1743,10 @@
         <v>24</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>0.67449</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>0.01082</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1772,10 +1772,10 @@
         <v>25</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>0.14593</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>0.008750000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1801,10 +1801,10 @@
         <v>26</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>0.6213</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>0.01451</v>
       </c>
     </row>
   </sheetData>

--- a/results/evaluation_chd_49_noisy_0.0.xlsx
+++ b/results/evaluation_chd_49_noisy_0.0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="26">
   <si>
     <t>Base_Learner</t>
   </si>
@@ -43,10 +43,7 @@
     <t>Std</t>
   </si>
   <si>
-    <t>RF</t>
-  </si>
-  <si>
-    <t>XGBoost</t>
+    <t>LightGBM</t>
   </si>
   <si>
     <t>PreOrder__Hamming__None</t>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -492,25 +489,25 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
         <v>23</v>
       </c>
-      <c r="G2" t="s">
-        <v>24</v>
-      </c>
       <c r="H2">
-        <v>0.6916099999999999</v>
+        <v>0.66521</v>
       </c>
       <c r="I2">
-        <v>0.01116</v>
+        <v>0.02552</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -518,25 +515,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H3">
-        <v>0.15317</v>
+        <v>0.11536</v>
       </c>
       <c r="I3">
-        <v>0.00928</v>
+        <v>0.02543</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -544,25 +541,25 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H4">
-        <v>0.65266</v>
+        <v>0.6311600000000001</v>
       </c>
       <c r="I4">
-        <v>0.01867</v>
+        <v>0.02506</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -570,28 +567,28 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
         <v>23</v>
       </c>
-      <c r="G5" t="s">
-        <v>24</v>
-      </c>
       <c r="H5">
-        <v>0.69524</v>
+        <v>0.68651</v>
       </c>
       <c r="I5">
-        <v>0.02378</v>
+        <v>0.01085</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -599,28 +596,28 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H6">
-        <v>0.14778</v>
+        <v>0.12975</v>
       </c>
       <c r="I6">
-        <v>0.01828</v>
+        <v>0.01104</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -628,28 +625,28 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H7">
-        <v>0.61757</v>
+        <v>0.61671</v>
       </c>
       <c r="I7">
-        <v>0.03911</v>
+        <v>0.01368</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -657,25 +654,25 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
         <v>20</v>
       </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
       <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
         <v>23</v>
       </c>
-      <c r="G8" t="s">
-        <v>24</v>
-      </c>
       <c r="H8">
-        <v>0.6916099999999999</v>
+        <v>0.6652</v>
       </c>
       <c r="I8">
-        <v>0.009950000000000001</v>
+        <v>0.02072</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -683,25 +680,25 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
         <v>20</v>
       </c>
-      <c r="E9" t="s">
-        <v>21</v>
-      </c>
       <c r="F9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H9">
-        <v>0.15857</v>
+        <v>0.11535</v>
       </c>
       <c r="I9">
-        <v>0.00389</v>
+        <v>0.02183</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -709,25 +706,25 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
         <v>20</v>
       </c>
-      <c r="E10" t="s">
-        <v>21</v>
-      </c>
       <c r="F10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H10">
-        <v>0.6522</v>
+        <v>0.63113</v>
       </c>
       <c r="I10">
-        <v>0.01779</v>
+        <v>0.02081</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -735,28 +732,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
         <v>20</v>
       </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>21</v>
-      </c>
       <c r="F11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" t="s">
         <v>23</v>
       </c>
-      <c r="G11" t="s">
-        <v>24</v>
-      </c>
       <c r="H11">
-        <v>0.68863</v>
+        <v>0.66819</v>
       </c>
       <c r="I11">
-        <v>0.02557</v>
+        <v>0.01171</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -764,28 +761,28 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
         <v>20</v>
       </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12" t="s">
-        <v>21</v>
-      </c>
       <c r="F12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H12">
-        <v>0.13341</v>
+        <v>0.10271</v>
       </c>
       <c r="I12">
-        <v>0.03988</v>
+        <v>0.00559</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -793,28 +790,28 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
         <v>20</v>
       </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13" t="s">
-        <v>21</v>
-      </c>
       <c r="F13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H13">
-        <v>0.60093</v>
+        <v>0.57467</v>
       </c>
       <c r="I13">
-        <v>0.04503</v>
+        <v>0.0215</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -822,25 +819,25 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" t="s">
         <v>23</v>
       </c>
-      <c r="G14" t="s">
-        <v>24</v>
-      </c>
       <c r="H14">
-        <v>0.69071</v>
+        <v>0.6727</v>
       </c>
       <c r="I14">
-        <v>0.01326</v>
+        <v>0.01262</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -848,25 +845,25 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H15">
-        <v>0.17119</v>
+        <v>0.12974</v>
       </c>
       <c r="I15">
-        <v>0.01292</v>
+        <v>0.00384</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -874,25 +871,25 @@
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H16">
-        <v>0.65604</v>
+        <v>0.64205</v>
       </c>
       <c r="I16">
-        <v>0.01831</v>
+        <v>0.01246</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -900,28 +897,28 @@
         <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D17">
         <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" t="s">
         <v>23</v>
       </c>
-      <c r="G17" t="s">
-        <v>24</v>
-      </c>
       <c r="H17">
-        <v>0.69042</v>
+        <v>0.6742</v>
       </c>
       <c r="I17">
-        <v>0.01596</v>
+        <v>0.01173</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -929,28 +926,28 @@
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D18">
         <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H18">
-        <v>0.16938</v>
+        <v>0.12976</v>
       </c>
       <c r="I18">
-        <v>0.00391</v>
+        <v>0.01465</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -958,28 +955,28 @@
         <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D19">
         <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H19">
-        <v>0.64991</v>
+        <v>0.62295</v>
       </c>
       <c r="I19">
-        <v>0.02123</v>
+        <v>0.01385</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -987,25 +984,25 @@
         <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" t="s">
         <v>23</v>
       </c>
-      <c r="G20" t="s">
-        <v>24</v>
-      </c>
       <c r="H20">
-        <v>0.69101</v>
+        <v>0.67209</v>
       </c>
       <c r="I20">
-        <v>0.01296</v>
+        <v>0.01202</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1013,25 +1010,25 @@
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H21">
-        <v>0.16939</v>
+        <v>0.12793</v>
       </c>
       <c r="I21">
-        <v>0.01112</v>
+        <v>0.00203</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1039,25 +1036,25 @@
         <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H22">
-        <v>0.6562</v>
+        <v>0.64061</v>
       </c>
       <c r="I22">
-        <v>0.01799</v>
+        <v>0.01253</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1065,28 +1062,28 @@
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D23">
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F23" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" t="s">
         <v>23</v>
       </c>
-      <c r="G23" t="s">
-        <v>24</v>
-      </c>
       <c r="H23">
-        <v>0.68891</v>
+        <v>0.6757</v>
       </c>
       <c r="I23">
-        <v>0.01445</v>
+        <v>0.01323</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1094,28 +1091,28 @@
         <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D24">
         <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H24">
-        <v>0.16577</v>
+        <v>0.13877</v>
       </c>
       <c r="I24">
-        <v>0.0003</v>
+        <v>0.01647</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1123,688 +1120,28 @@
         <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D25">
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H25">
-        <v>0.6483100000000001</v>
+        <v>0.62307</v>
       </c>
       <c r="I25">
-        <v>0.01939</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" t="s">
-        <v>24</v>
-      </c>
-      <c r="H26">
-        <v>0.6751</v>
-      </c>
-      <c r="I26">
-        <v>0.01623</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" t="s">
-        <v>21</v>
-      </c>
-      <c r="F27" t="s">
-        <v>23</v>
-      </c>
-      <c r="G27" t="s">
-        <v>25</v>
-      </c>
-      <c r="H27">
-        <v>0.12794</v>
-      </c>
-      <c r="I27">
-        <v>0.00564</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" t="s">
-        <v>21</v>
-      </c>
-      <c r="F28" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" t="s">
-        <v>26</v>
-      </c>
-      <c r="H28">
-        <v>0.64085</v>
-      </c>
-      <c r="I28">
-        <v>0.01778</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29">
-        <v>2</v>
-      </c>
-      <c r="E29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F29" t="s">
-        <v>23</v>
-      </c>
-      <c r="G29" t="s">
-        <v>24</v>
-      </c>
-      <c r="H29">
-        <v>0.6814</v>
-      </c>
-      <c r="I29">
-        <v>0.01174</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30">
-        <v>2</v>
-      </c>
-      <c r="E30" t="s">
-        <v>21</v>
-      </c>
-      <c r="F30" t="s">
-        <v>23</v>
-      </c>
-      <c r="G30" t="s">
-        <v>25</v>
-      </c>
-      <c r="H30">
-        <v>0.12974</v>
-      </c>
-      <c r="I30">
-        <v>0.00384</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31">
-        <v>2</v>
-      </c>
-      <c r="E31" t="s">
-        <v>21</v>
-      </c>
-      <c r="F31" t="s">
-        <v>23</v>
-      </c>
-      <c r="G31" t="s">
-        <v>26</v>
-      </c>
-      <c r="H31">
-        <v>0.60972</v>
-      </c>
-      <c r="I31">
-        <v>0.01558</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32" t="s">
-        <v>21</v>
-      </c>
-      <c r="F32" t="s">
-        <v>23</v>
-      </c>
-      <c r="G32" t="s">
-        <v>24</v>
-      </c>
-      <c r="H32">
-        <v>0.6718</v>
-      </c>
-      <c r="I32">
-        <v>0.01833</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" t="s">
-        <v>20</v>
-      </c>
-      <c r="E33" t="s">
-        <v>21</v>
-      </c>
-      <c r="F33" t="s">
-        <v>23</v>
-      </c>
-      <c r="G33" t="s">
-        <v>25</v>
-      </c>
-      <c r="H33">
-        <v>0.12434</v>
-      </c>
-      <c r="I33">
-        <v>0.00923</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" t="s">
-        <v>20</v>
-      </c>
-      <c r="E34" t="s">
-        <v>21</v>
-      </c>
-      <c r="F34" t="s">
-        <v>23</v>
-      </c>
-      <c r="G34" t="s">
-        <v>26</v>
-      </c>
-      <c r="H34">
-        <v>0.63662</v>
-      </c>
-      <c r="I34">
-        <v>0.02007</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" t="s">
-        <v>14</v>
-      </c>
-      <c r="C35" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35">
-        <v>2</v>
-      </c>
-      <c r="E35" t="s">
-        <v>21</v>
-      </c>
-      <c r="F35" t="s">
-        <v>23</v>
-      </c>
-      <c r="G35" t="s">
-        <v>24</v>
-      </c>
-      <c r="H35">
-        <v>0.66488</v>
-      </c>
-      <c r="I35">
-        <v>0.00961</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" t="s">
-        <v>14</v>
-      </c>
-      <c r="C36" t="s">
-        <v>20</v>
-      </c>
-      <c r="D36">
-        <v>2</v>
-      </c>
-      <c r="E36" t="s">
-        <v>21</v>
-      </c>
-      <c r="F36" t="s">
-        <v>23</v>
-      </c>
-      <c r="G36" t="s">
-        <v>25</v>
-      </c>
-      <c r="H36">
-        <v>0.10632</v>
-      </c>
-      <c r="I36">
-        <v>0.0056</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" t="s">
-        <v>14</v>
-      </c>
-      <c r="C37" t="s">
-        <v>20</v>
-      </c>
-      <c r="D37">
-        <v>2</v>
-      </c>
-      <c r="E37" t="s">
-        <v>21</v>
-      </c>
-      <c r="F37" t="s">
-        <v>23</v>
-      </c>
-      <c r="G37" t="s">
-        <v>26</v>
-      </c>
-      <c r="H37">
-        <v>0.57685</v>
-      </c>
-      <c r="I37">
-        <v>0.01892</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38" t="s">
-        <v>19</v>
-      </c>
-      <c r="E38" t="s">
-        <v>22</v>
-      </c>
-      <c r="F38" t="s">
-        <v>23</v>
-      </c>
-      <c r="G38" t="s">
-        <v>24</v>
-      </c>
-      <c r="H38">
-        <v>0.67931</v>
-      </c>
-      <c r="I38">
-        <v>0.01924</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39" t="s">
-        <v>19</v>
-      </c>
-      <c r="E39" t="s">
-        <v>22</v>
-      </c>
-      <c r="F39" t="s">
-        <v>23</v>
-      </c>
-      <c r="G39" t="s">
-        <v>25</v>
-      </c>
-      <c r="H39">
-        <v>0.14235</v>
-      </c>
-      <c r="I39">
-        <v>0.00206</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" t="s">
-        <v>10</v>
-      </c>
-      <c r="B40" t="s">
-        <v>15</v>
-      </c>
-      <c r="C40" t="s">
-        <v>19</v>
-      </c>
-      <c r="E40" t="s">
-        <v>22</v>
-      </c>
-      <c r="F40" t="s">
-        <v>23</v>
-      </c>
-      <c r="G40" t="s">
-        <v>26</v>
-      </c>
-      <c r="H40">
-        <v>0.64442</v>
-      </c>
-      <c r="I40">
-        <v>0.02136</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" t="s">
-        <v>10</v>
-      </c>
-      <c r="B41" t="s">
-        <v>16</v>
-      </c>
-      <c r="C41" t="s">
-        <v>19</v>
-      </c>
-      <c r="D41">
-        <v>2</v>
-      </c>
-      <c r="E41" t="s">
-        <v>22</v>
-      </c>
-      <c r="F41" t="s">
-        <v>23</v>
-      </c>
-      <c r="G41" t="s">
-        <v>24</v>
-      </c>
-      <c r="H41">
-        <v>0.6778</v>
-      </c>
-      <c r="I41">
-        <v>0.01173</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" t="s">
-        <v>10</v>
-      </c>
-      <c r="B42" t="s">
-        <v>16</v>
-      </c>
-      <c r="C42" t="s">
-        <v>19</v>
-      </c>
-      <c r="D42">
-        <v>2</v>
-      </c>
-      <c r="E42" t="s">
-        <v>22</v>
-      </c>
-      <c r="F42" t="s">
-        <v>23</v>
-      </c>
-      <c r="G42" t="s">
-        <v>25</v>
-      </c>
-      <c r="H42">
-        <v>0.14594</v>
-      </c>
-      <c r="I42">
-        <v>0.00514</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" t="s">
-        <v>10</v>
-      </c>
-      <c r="B43" t="s">
-        <v>16</v>
-      </c>
-      <c r="C43" t="s">
-        <v>19</v>
-      </c>
-      <c r="D43">
-        <v>2</v>
-      </c>
-      <c r="E43" t="s">
-        <v>22</v>
-      </c>
-      <c r="F43" t="s">
-        <v>23</v>
-      </c>
-      <c r="G43" t="s">
-        <v>26</v>
-      </c>
-      <c r="H43">
-        <v>0.6252</v>
-      </c>
-      <c r="I43">
-        <v>0.01559</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" t="s">
-        <v>10</v>
-      </c>
-      <c r="B44" t="s">
-        <v>17</v>
-      </c>
-      <c r="C44" t="s">
-        <v>20</v>
-      </c>
-      <c r="E44" t="s">
-        <v>22</v>
-      </c>
-      <c r="F44" t="s">
-        <v>23</v>
-      </c>
-      <c r="G44" t="s">
-        <v>24</v>
-      </c>
-      <c r="H44">
-        <v>0.67991</v>
-      </c>
-      <c r="I44">
-        <v>0.01744</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" t="s">
-        <v>10</v>
-      </c>
-      <c r="B45" t="s">
-        <v>17</v>
-      </c>
-      <c r="C45" t="s">
-        <v>20</v>
-      </c>
-      <c r="E45" t="s">
-        <v>22</v>
-      </c>
-      <c r="F45" t="s">
-        <v>23</v>
-      </c>
-      <c r="G45" t="s">
-        <v>25</v>
-      </c>
-      <c r="H45">
-        <v>0.14235</v>
-      </c>
-      <c r="I45">
-        <v>0.00206</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" t="s">
-        <v>10</v>
-      </c>
-      <c r="B46" t="s">
-        <v>17</v>
-      </c>
-      <c r="C46" t="s">
-        <v>20</v>
-      </c>
-      <c r="E46" t="s">
-        <v>22</v>
-      </c>
-      <c r="F46" t="s">
-        <v>23</v>
-      </c>
-      <c r="G46" t="s">
-        <v>26</v>
-      </c>
-      <c r="H46">
-        <v>0.6450399999999999</v>
-      </c>
-      <c r="I46">
-        <v>0.01927</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" t="s">
-        <v>10</v>
-      </c>
-      <c r="B47" t="s">
-        <v>18</v>
-      </c>
-      <c r="C47" t="s">
-        <v>20</v>
-      </c>
-      <c r="D47">
-        <v>2</v>
-      </c>
-      <c r="E47" t="s">
-        <v>22</v>
-      </c>
-      <c r="F47" t="s">
-        <v>23</v>
-      </c>
-      <c r="G47" t="s">
-        <v>24</v>
-      </c>
-      <c r="H47">
-        <v>0.67449</v>
-      </c>
-      <c r="I47">
-        <v>0.01082</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" t="s">
-        <v>10</v>
-      </c>
-      <c r="B48" t="s">
-        <v>18</v>
-      </c>
-      <c r="C48" t="s">
-        <v>20</v>
-      </c>
-      <c r="D48">
-        <v>2</v>
-      </c>
-      <c r="E48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F48" t="s">
-        <v>23</v>
-      </c>
-      <c r="G48" t="s">
-        <v>25</v>
-      </c>
-      <c r="H48">
-        <v>0.14593</v>
-      </c>
-      <c r="I48">
-        <v>0.008750000000000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" t="s">
-        <v>10</v>
-      </c>
-      <c r="B49" t="s">
-        <v>18</v>
-      </c>
-      <c r="C49" t="s">
-        <v>20</v>
-      </c>
-      <c r="D49">
-        <v>2</v>
-      </c>
-      <c r="E49" t="s">
-        <v>22</v>
-      </c>
-      <c r="F49" t="s">
-        <v>23</v>
-      </c>
-      <c r="G49" t="s">
-        <v>26</v>
-      </c>
-      <c r="H49">
-        <v>0.6213</v>
-      </c>
-      <c r="I49">
-        <v>0.01451</v>
+        <v>0.01519</v>
       </c>
     </row>
   </sheetData>
